--- a/hw03/truthtable.xlsx
+++ b/hw03/truthtable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\work\cs2110\spring21\HW03-Spring21\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrchargerlover\Documents\Programming Archive\CS_2110\hw03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFC81A9-96A0-433D-B0E3-2363961D97D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62A9D3B-A588-40C9-AC93-B334CE4A8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12780" windowHeight="17235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,108 +567,284 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
